--- a/data/prediksi S3.xlsx
+++ b/data/prediksi S3.xlsx
@@ -450,7 +450,7 @@
         <v>3.6</v>
       </c>
       <c r="B2" t="n">
-        <v>4.273724280071304</v>
+        <v>4.323272409600026</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>3.33</v>
       </c>
       <c r="B3" t="n">
-        <v>3.39073875868473</v>
+        <v>3.433396468634398</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3.45</v>
       </c>
       <c r="B4" t="n">
-        <v>3.469391436445949</v>
+        <v>3.370166926173129</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3.21</v>
       </c>
       <c r="B5" t="n">
-        <v>4.02661221927004</v>
+        <v>3.667727407583354</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>2.79</v>
       </c>
       <c r="B6" t="n">
-        <v>3.974069195413073</v>
+        <v>3.429784349427956</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>3.07</v>
       </c>
       <c r="B7" t="n">
-        <v>3.340521951123542</v>
+        <v>2.92029897258481</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>3.31</v>
       </c>
       <c r="B8" t="n">
-        <v>3.669151793109186</v>
+        <v>3.298489923892004</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>3.58</v>
       </c>
       <c r="B9" t="n">
-        <v>3.78663306676063</v>
+        <v>3.476267507340436</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>3.02</v>
       </c>
       <c r="B10" t="n">
-        <v>4.056527027167594</v>
+        <v>3.717832518091036</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>3.49</v>
       </c>
       <c r="B11" t="n">
-        <v>3.200242218069001</v>
+        <v>2.995035372597114</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>3.83</v>
       </c>
       <c r="B12" t="n">
-        <v>3.988896319297693</v>
+        <v>3.684841397024422</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>3.61</v>
       </c>
       <c r="B13" t="n">
-        <v>4.423714659272061</v>
+        <v>4.024237586339072</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>4.17</v>
       </c>
       <c r="B14" t="n">
-        <v>4.114849361542927</v>
+        <v>3.701643123301096</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>4.33</v>
       </c>
       <c r="B15" t="n">
-        <v>4.811172502387936</v>
+        <v>4.360495313378769</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>4.369999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>4.885103065308523</v>
+        <v>4.422147514496234</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>3.88</v>
       </c>
       <c r="B17" t="n">
-        <v>4.847908610299226</v>
+        <v>4.407600980885769</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>3.82</v>
       </c>
       <c r="B18" t="n">
-        <v>4.320684320473556</v>
+        <v>3.902848750369954</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>3.72</v>
       </c>
       <c r="B19" t="n">
-        <v>4.229493659475777</v>
+        <v>3.891485399076617</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>3.58</v>
       </c>
       <c r="B20" t="n">
-        <v>4.050845388060161</v>
+        <v>3.778216473590973</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>3.3</v>
       </c>
       <c r="B21" t="n">
-        <v>3.910799497481507</v>
+        <v>3.634610971380507</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>3.61</v>
       </c>
       <c r="B22" t="n">
-        <v>3.459347108406368</v>
+        <v>3.308942637636592</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>3.25</v>
       </c>
       <c r="B23" t="n">
-        <v>3.843459911098722</v>
+        <v>3.680065379957389</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>3.18</v>
       </c>
       <c r="B24" t="n">
-        <v>3.320726607710938</v>
+        <v>3.212931044385519</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>3.4</v>
       </c>
       <c r="B25" t="n">
-        <v>3.416698247757877</v>
+        <v>3.238541901036449</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>3.41</v>
       </c>
       <c r="B26" t="n">
-        <v>3.733432345869396</v>
+        <v>3.518635382311335</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>3.23</v>
       </c>
       <c r="B27" t="n">
-        <v>3.752234301247291</v>
+        <v>3.494200460038914</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>3.12</v>
       </c>
       <c r="B28" t="n">
-        <v>3.555214710538585</v>
+        <v>3.298585734406847</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>3.18</v>
       </c>
       <c r="B29" t="n">
-        <v>3.522921866881966</v>
+        <v>3.244305302074322</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>3.2</v>
       </c>
       <c r="B30" t="n">
-        <v>3.510900559952556</v>
+        <v>3.293202515119715</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2.88</v>
       </c>
       <c r="B31" t="n">
-        <v>3.582615974400335</v>
+        <v>3.31693212979419</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>3.16</v>
       </c>
       <c r="B32" t="n">
-        <v>3.155115078026792</v>
+        <v>2.940773908495528</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>3.23</v>
       </c>
       <c r="B33" t="n">
-        <v>3.532447307090891</v>
+        <v>3.308101654312392</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>3.13</v>
       </c>
       <c r="B34" t="n">
-        <v>3.546297590301118</v>
+        <v>3.320541412137405</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2.82</v>
       </c>
       <c r="B35" t="n">
-        <v>3.443593927292833</v>
+        <v>3.198472706107006</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>3.058507975193165</v>
+        <v>2.873716446099109</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2.48</v>
       </c>
       <c r="B37" t="n">
-        <v>2.769256488241571</v>
+        <v>2.647127666333638</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2.83</v>
       </c>
       <c r="B38" t="n">
-        <v>2.711726415789037</v>
+        <v>2.596256458631292</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>3.32</v>
       </c>
       <c r="B39" t="n">
-        <v>3.241128205007944</v>
+        <v>3.020485219496417</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>3.28</v>
       </c>
       <c r="B40" t="n">
-        <v>3.733269745032747</v>
+        <v>3.468012517461405</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>3.32</v>
       </c>
       <c r="B41" t="n">
-        <v>3.559334274275888</v>
+        <v>3.30793544411245</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>3.49</v>
       </c>
       <c r="B42" t="n">
-        <v>3.667406876633025</v>
+        <v>3.392599316978617</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>3.39</v>
       </c>
       <c r="B43" t="n">
-        <v>3.978854908752583</v>
+        <v>3.632015101622303</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>3.13</v>
       </c>
       <c r="B44" t="n">
-        <v>3.837663215733516</v>
+        <v>3.485736908557769</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="n">
-        <v>3.548166612221789</v>
+        <v>3.228656156006461</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>2.72</v>
       </c>
       <c r="B46" t="n">
-        <v>3.374370246675223</v>
+        <v>3.119989010036895</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>2.68</v>
       </c>
       <c r="B47" t="n">
-        <v>2.910707194682168</v>
+        <v>2.779812401039046</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>2.98</v>
       </c>
       <c r="B48" t="n">
-        <v>2.872557214709647</v>
+        <v>2.765306736181834</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>2.96</v>
       </c>
       <c r="B49" t="n">
-        <v>3.245759749518973</v>
+        <v>3.096033046589192</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>2.67</v>
       </c>
       <c r="B50" t="n">
-        <v>3.103813174596731</v>
+        <v>2.979480183216406</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>2.19</v>
       </c>
       <c r="B51" t="n">
-        <v>2.764393078020104</v>
+        <v>2.670637737819959</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.96</v>
       </c>
       <c r="B52" t="n">
-        <v>2.303368533416819</v>
+        <v>2.236675332694414</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.54</v>
       </c>
       <c r="B53" t="n">
-        <v>2.113952953157865</v>
+        <v>2.077105349608356</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.32</v>
       </c>
       <c r="B54" t="n">
-        <v>1.651790319999012</v>
+        <v>1.647302592475001</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.42</v>
       </c>
       <c r="B55" t="n">
-        <v>1.454621339616069</v>
+        <v>1.461494380358729</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.44</v>
       </c>
       <c r="B56" t="n">
-        <v>1.53668400529202</v>
+        <v>1.580820529937685</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.59</v>
       </c>
       <c r="B57" t="n">
-        <v>1.479949159633703</v>
+        <v>1.549061784855647</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.68</v>
       </c>
       <c r="B58" t="n">
-        <v>1.703904303906448</v>
+        <v>1.719411891509639</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.55</v>
       </c>
       <c r="B59" t="n">
-        <v>1.860553923558248</v>
+        <v>1.821600957527203</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.38</v>
       </c>
       <c r="B60" t="n">
-        <v>1.712365902934515</v>
+        <v>1.67079986353849</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.37</v>
       </c>
       <c r="B61" t="n">
-        <v>1.647308077541801</v>
+        <v>1.554346365817109</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1.42</v>
       </c>
       <c r="B62" t="n">
-        <v>1.713936308556704</v>
+        <v>1.597938821351038</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1.68</v>
       </c>
       <c r="B63" t="n">
-        <v>1.713683618083838</v>
+        <v>1.630241761905511</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1.33</v>
       </c>
       <c r="B64" t="n">
-        <v>1.971905264908263</v>
+        <v>1.8865442956119</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1.52</v>
       </c>
       <c r="B65" t="n">
-        <v>1.395908356114734</v>
+        <v>1.41204518657662</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1.59</v>
       </c>
       <c r="B66" t="n">
-        <v>1.653573364173583</v>
+        <v>1.679753185821856</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1.6</v>
       </c>
       <c r="B67" t="n">
-        <v>1.731941555911805</v>
+        <v>1.73748680744625</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1.66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.753707428950425</v>
+        <v>1.730257373870108</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1.75</v>
       </c>
       <c r="B69" t="n">
-        <v>1.84943878759687</v>
+        <v>1.809900347670888</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1.87</v>
       </c>
       <c r="B70" t="n">
-        <v>1.970431145169447</v>
+        <v>1.907538723393139</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>2.18</v>
       </c>
       <c r="B71" t="n">
-        <v>2.075482116497111</v>
+        <v>2.012093368745465</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>2.06</v>
       </c>
       <c r="B72" t="n">
-        <v>2.530013973607192</v>
+        <v>2.366612993749546</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>2.640000000000001</v>
       </c>
       <c r="B73" t="n">
-        <v>2.267243422462663</v>
+        <v>2.150959002548095</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>3.47</v>
       </c>
       <c r="B74" t="n">
-        <v>3.071085293195616</v>
+        <v>2.841243310173851</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>3.55</v>
       </c>
       <c r="B75" t="n">
-        <v>4.120519927857154</v>
+        <v>3.694311188733874</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>4.35</v>
       </c>
       <c r="B76" t="n">
-        <v>4.077555106038071</v>
+        <v>3.616921238210028</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>4.94</v>
       </c>
       <c r="B77" t="n">
-        <v>5.172216758471331</v>
+        <v>4.530855170661716</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>4.69</v>
       </c>
       <c r="B78" t="n">
-        <v>5.886684102271293</v>
+        <v>5.093409431596279</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>5.95</v>
       </c>
       <c r="B79" t="n">
-        <v>5.410876137382547</v>
+        <v>4.672653079957329</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>5.71</v>
       </c>
       <c r="B80" t="n">
-        <v>7.237240714240539</v>
+        <v>6.223557732563348</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>5.42</v>
       </c>
       <c r="B81" t="n">
-        <v>6.679952787795624</v>
+        <v>5.68905691960512</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>5.509999999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>6.163363262218345</v>
+        <v>5.333725821184007</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>5.280000000000001</v>
       </c>
       <c r="B83" t="n">
-        <v>6.389658056645309</v>
+        <v>5.570232195320723</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>5.47</v>
       </c>
       <c r="B84" t="n">
-        <v>5.882612988885075</v>
+        <v>5.228595369636885</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>4.97</v>
       </c>
       <c r="B85" t="n">
-        <v>6.04506588087241</v>
+        <v>5.427470547214132</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>4.33</v>
       </c>
       <c r="B86" t="n">
-        <v>5.365145750154093</v>
+        <v>4.863744583856571</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="n">
-        <v>4.267194336314349</v>
+        <v>4.160440634308186</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>3.52</v>
       </c>
       <c r="B88" t="n">
-        <v>3.997525556310681</v>
+        <v>3.944285940685157</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>3.08</v>
       </c>
       <c r="B89" t="n">
-        <v>3.511396989130876</v>
+        <v>3.48533821662178</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>3.27</v>
       </c>
       <c r="B90" t="n">
-        <v>3.031940554595216</v>
+        <v>3.05787318318053</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>2.28</v>
       </c>
       <c r="B91" t="n">
-        <v>3.377224244891686</v>
+        <v>3.351311203389549</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>2.56</v>
       </c>
       <c r="B92" t="n">
-        <v>2.175674029816898</v>
+        <v>2.188015631391792</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>2.86</v>
       </c>
       <c r="B93" t="n">
-        <v>2.807727160405295</v>
+        <v>2.709423397301071</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>2.61</v>
       </c>
       <c r="B94" t="n">
-        <v>3.23949975199586</v>
+        <v>3.042450758887886</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="B95" t="n">
-        <v>2.882909956321376</v>
+        <v>2.66370350451868</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>2.75</v>
       </c>
       <c r="B96" t="n">
-        <v>2.970889210580638</v>
+        <v>2.710869753890666</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>3.05</v>
       </c>
       <c r="B97" t="n">
-        <v>3.343641775004776</v>
+        <v>2.982994941734197</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="n">
-        <v>3.561805431367839</v>
+        <v>3.240769249508671</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>2.84</v>
       </c>
       <c r="B99" t="n">
-        <v>3.541872632851445</v>
+        <v>3.166225983475668</v>
       </c>
     </row>
   </sheetData>
